--- a/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/ForeclosureFee.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/ForeclosureFee.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09250F8-6828-44A2-8917-BD19D38D6CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -599,26 +600,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔
-01: 郵費
-02: 支付命令
-03: 公示送達
-04: 裁定費
-05: 執行費
-06: 測量費
-07: 鑑價費
-08: 刊報費
-09: 假扣押擔保金
-10: 前項結餘
-11: 全額沖銷
-12: 退出納課
-13: 警察陪同費
-14: 查財產費用
-15: 催收沖銷(勿用)
-99: 其它</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>暫付款單據日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -706,13 +687,33 @@
     <t>1:暫收抵繳
 2:匯款
 3:呆帳戶法務費墊付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+01:郵費
+02:支付命令
+03:公示送達
+04:裁定費
+05:執行費
+06:測量費
+07:鑑價費
+08:刊報費
+09:假扣押擔保金
+10:前項結餘
+11:全額沖銷
+12:退出納課
+13:警察陪同費
+14:查財產費用
+15:催收沖銷(勿用)
+99:其它</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1229,6 +1230,63 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1238,73 +1296,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1395,6 +1396,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1430,6 +1448,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1605,11 +1640,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1629,10 +1664,10 @@
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
@@ -1683,7 +1718,7 @@
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="13"/>
@@ -1740,10 +1775,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>29</v>
@@ -1759,10 +1794,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>147</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>148</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>29</v>
@@ -1800,7 +1835,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>43</v>
@@ -1816,10 +1851,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>43</v>
@@ -1829,7 +1864,7 @@
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -1850,7 +1885,7 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1882,7 +1917,7 @@
         <v>61</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>29</v>
@@ -1900,10 +1935,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>151</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>152</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>44</v>
@@ -1913,7 +1948,7 @@
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1991,7 +2026,7 @@
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2056,7 +2091,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>69</v>
@@ -2161,7 +2196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2267,21 +2302,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>58</v>
@@ -2295,7 +2330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2481,18 +2516,18 @@
       <c r="B28" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="38" t="s">
+      <c r="D28" s="59"/>
+      <c r="E28" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
       <c r="K28" s="25"/>
       <c r="L28" t="s">
         <v>123</v>
@@ -2504,18 +2539,18 @@
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="42" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42" t="s">
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
       <c r="K29" s="27"/>
       <c r="L29" s="22" t="s">
         <v>126</v>
@@ -2525,23 +2560,23 @@
       <c r="A30" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="51" t="s">
+      <c r="D30" s="49"/>
+      <c r="E30" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="52"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="51" t="s">
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="I30" s="52"/>
-      <c r="J30" s="53"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="41"/>
       <c r="K30" s="27"/>
       <c r="L30" t="s">
         <v>125</v>
@@ -2549,15 +2584,15 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="44"/>
       <c r="K31" s="27"/>
       <c r="L31" t="s">
         <v>127</v>
@@ -2565,49 +2600,49 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="59"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="47"/>
       <c r="K32" s="27"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="26"/>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="51" t="s">
+      <c r="D33" s="49"/>
+      <c r="E33" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="51" t="s">
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="I33" s="52"/>
-      <c r="J33" s="53"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="41"/>
       <c r="K33" s="27"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="56"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="44"/>
       <c r="K34" s="27"/>
       <c r="L34" t="s">
         <v>123</v>
@@ -2618,15 +2653,15 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="26"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="59"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="47"/>
       <c r="K35" s="27"/>
       <c r="L35" s="22" t="s">
         <v>126</v>
@@ -2634,23 +2669,23 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="26"/>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="51" t="s">
+      <c r="D36" s="49"/>
+      <c r="E36" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="51" t="s">
+      <c r="F36" s="40"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="I36" s="52"/>
-      <c r="J36" s="53"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="41"/>
       <c r="K36" s="27"/>
       <c r="L36" t="s">
         <v>125</v>
@@ -2658,15 +2693,15 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="26"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="56"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="44"/>
       <c r="K37" s="27"/>
       <c r="L37" t="s">
         <v>129</v>
@@ -2674,169 +2709,169 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="26"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="59"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="47"/>
       <c r="K38" s="27"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="51" t="s">
+      <c r="D39" s="49"/>
+      <c r="E39" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="51" t="s">
+      <c r="F39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="I39" s="52"/>
-      <c r="J39" s="53"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="41"/>
       <c r="K39" s="27"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="56"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="44"/>
       <c r="K40" s="27"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="59"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="47"/>
       <c r="K41" s="27"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="51" t="s">
+      <c r="D42" s="49"/>
+      <c r="E42" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="51" t="s">
+      <c r="F42" s="40"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="I42" s="52"/>
-      <c r="J42" s="53"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="41"/>
       <c r="K42" s="27"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="26"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="56"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="44"/>
       <c r="K43" s="27"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="26"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="59"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="47"/>
       <c r="K44" s="27"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="26"/>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="51" t="s">
+      <c r="D45" s="49"/>
+      <c r="E45" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="F45" s="52"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="51" t="s">
+      <c r="F45" s="40"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="I45" s="52"/>
-      <c r="J45" s="53"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="41"/>
       <c r="K45" s="27"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="26"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="56"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="44"/>
       <c r="K46" s="27"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="26"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="59"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="47"/>
       <c r="K47" s="27"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="26"/>
       <c r="B48" s="31"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
       <c r="K48" s="27"/>
     </row>
     <row r="49" spans="1:11" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -2854,6 +2889,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C30:D32"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C39:D41"/>
+    <mergeCell ref="C42:D44"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C45:D47"/>
+    <mergeCell ref="E42:G44"/>
+    <mergeCell ref="E45:G47"/>
+    <mergeCell ref="H45:J47"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="E30:G32"/>
     <mergeCell ref="E33:G35"/>
@@ -2870,22 +2921,6 @@
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="C36:D38"/>
-    <mergeCell ref="C39:D41"/>
-    <mergeCell ref="C42:D44"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C45:D47"/>
-    <mergeCell ref="E42:G44"/>
-    <mergeCell ref="E45:G47"/>
-    <mergeCell ref="H45:J47"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="C30:D32"/>
-    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
